--- a/output/fit_clients/fit_round_193.xlsx
+++ b/output/fit_clients/fit_round_193.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1925864557.506658</v>
+        <v>1994610808.21125</v>
       </c>
       <c r="F2" t="n">
-        <v>0.112235545485383</v>
+        <v>0.08859894492599535</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02789958011150116</v>
+        <v>0.03701929190181528</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>962932264.3886915</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1965734720.830612</v>
+        <v>1623977012.557793</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1660082926199165</v>
+        <v>0.1117637601845688</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04123916931083794</v>
+        <v>0.04601850361245455</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>982867395.142732</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4607445350.470641</v>
+        <v>4306523811.00824</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1268173194031094</v>
+        <v>0.1015593683178991</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03598766127384672</v>
+        <v>0.03486661359025466</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>70</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2303722732.418359</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4014150732.406338</v>
+        <v>3720369237.222749</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1053451388548219</v>
+        <v>0.08969168693572085</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03319035991017158</v>
+        <v>0.04840625958553636</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2007075368.973546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2876346799.835246</v>
+        <v>1942037598.517087</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1014929187614752</v>
+        <v>0.09507497436626751</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04973098887870239</v>
+        <v>0.03452677684991218</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>30</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1438173334.638171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2715526329.834719</v>
+        <v>2403734313.309823</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07105745826433291</v>
+        <v>0.08109567395240695</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04325787717953065</v>
+        <v>0.04932119331063417</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1357763157.159681</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3605758435.927017</v>
+        <v>3803822141.006137</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1336264181631334</v>
+        <v>0.1350029861780132</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02743955092595241</v>
+        <v>0.03205212478391124</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>61</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1802879337.376267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2280722454.82872</v>
+        <v>1422674959.774263</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1665019799000005</v>
+        <v>0.1863218653284299</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02858632746022154</v>
+        <v>0.03018569108303</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1140361215.057971</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5565744352.34757</v>
+        <v>4792436761.78234</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2017453219603812</v>
+        <v>0.1660590381197022</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03961510579579784</v>
+        <v>0.0492289757965042</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>81</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2782872319.270292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3559566428.422285</v>
+        <v>2769609921.54675</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1176178245424619</v>
+        <v>0.1601931457550656</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03141632539626279</v>
+        <v>0.03696089079067731</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>80</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1779783196.196387</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2106819193.914094</v>
+        <v>2581911349.763599</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1772932233619055</v>
+        <v>0.1776801783393026</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03498710329040187</v>
+        <v>0.04655431107964719</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>68</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1053409533.135614</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4533858985.311837</v>
+        <v>4094306443.073982</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08617068608075114</v>
+        <v>0.0957057428577428</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02773514657341948</v>
+        <v>0.02616657519446548</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>65</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2266929520.45041</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3785452955.477186</v>
+        <v>3155938059.875351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1782818893749727</v>
+        <v>0.1613392615295313</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04244499759011417</v>
+        <v>0.03805066620490356</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>62</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1892726455.28266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1464276495.825314</v>
+        <v>1141567172.676346</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08625094722592878</v>
+        <v>0.1027670353644436</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03975171583105654</v>
+        <v>0.03768700580819218</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>732138325.2924455</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2686601775.147735</v>
+        <v>2370850531.840798</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07919517708607644</v>
+        <v>0.0888223109028758</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03576482265045527</v>
+        <v>0.04320229794519286</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1343300901.697103</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3399019288.722842</v>
+        <v>4999644619.850253</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1359114114938068</v>
+        <v>0.1108560088796339</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05321131466236469</v>
+        <v>0.03911017217351016</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>56</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1699509708.59747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2619474743.945549</v>
+        <v>2566005357.582275</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1371581760206713</v>
+        <v>0.1446159617792099</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03007789559824707</v>
+        <v>0.02448964257771958</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>63</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1309737429.734599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1061153852.366352</v>
+        <v>1376651009.386985</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1554602912054678</v>
+        <v>0.1295445645312186</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02668216763696871</v>
+        <v>0.01784572812689382</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>530576970.2877984</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2723223638.349725</v>
+        <v>2136476970.995057</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1606503226407025</v>
+        <v>0.121069033180233</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02315767337242554</v>
+        <v>0.02582108780073225</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>32</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1361611768.4778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2316973197.696031</v>
+        <v>2661767788.853281</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06323046043781316</v>
+        <v>0.06952033208362222</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03697287328333961</v>
+        <v>0.04598449159996978</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1158486604.479913</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3003911589.957971</v>
+        <v>3777685842.80219</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1405669682764092</v>
+        <v>0.1120676848289533</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0450140941762642</v>
+        <v>0.04067255990046545</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>53</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1501955856.250985</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1302039151.227892</v>
+        <v>993616277.908978</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1379621852666891</v>
+        <v>0.1602285876230897</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04278223806377095</v>
+        <v>0.04660921981166753</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>651019594.8814507</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3819283170.422875</v>
+        <v>3641119338.724865</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1358039849886621</v>
+        <v>0.1229559383555147</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03543382512454801</v>
+        <v>0.02946189657634646</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>56</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1909641565.337759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1281142412.961369</v>
+        <v>1236189464.892212</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1093177905795433</v>
+        <v>0.08334772769720204</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0218083330541062</v>
+        <v>0.0309229180571901</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>640571205.7537955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>949959856.5762697</v>
+        <v>1444584392.844564</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08779671188789881</v>
+        <v>0.1045882948861398</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02878388906113139</v>
+        <v>0.02919355903743063</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>474979888.0678409</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4384218758.398498</v>
+        <v>3446606085.764162</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1036223665298543</v>
+        <v>0.1283032843473316</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02313983329061326</v>
+        <v>0.02408636942346236</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2192109370.271003</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3257783727.056237</v>
+        <v>2480699034.509121</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1363122078872805</v>
+        <v>0.1239198493073555</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0434507261135087</v>
+        <v>0.04775759094623499</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>62</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1628891897.126659</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3849979480.105174</v>
+        <v>4401698995.799566</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09404649317165331</v>
+        <v>0.1484089403839358</v>
       </c>
       <c r="G29" t="n">
-        <v>0.040560776341973</v>
+        <v>0.03313474568940234</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>88</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1924989767.278286</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1864605592.84573</v>
+        <v>1886184128.76309</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1052123630082549</v>
+        <v>0.1028216086793864</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03943180681560325</v>
+        <v>0.02493051737437249</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>932302818.4681667</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1448091797.08858</v>
+        <v>1056075320.881238</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08667977203236675</v>
+        <v>0.0749894169367573</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04035734131658762</v>
+        <v>0.05137148691850657</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>724045791.5920258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1639911557.137392</v>
+        <v>1236150495.083873</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1054641757803359</v>
+        <v>0.1179369415737591</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03399966350325549</v>
+        <v>0.0343586416876661</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>819955875.886077</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2475336974.543324</v>
+        <v>2145486223.323093</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1692029414047644</v>
+        <v>0.1450959660203343</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03838527764605769</v>
+        <v>0.04238911130785391</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1237668527.576301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1144097379.002864</v>
+        <v>1194555195.41488</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08954886125758441</v>
+        <v>0.1036502463470205</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01721243624474804</v>
+        <v>0.02778357819979571</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>572048703.6859956</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>830859883.4871202</v>
+        <v>931386243.550396</v>
       </c>
       <c r="F35" t="n">
-        <v>0.088926478859943</v>
+        <v>0.07988228884938628</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03329115130182509</v>
+        <v>0.02975184652825891</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>415429997.3916262</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3190413869.098937</v>
+        <v>2579673051.741581</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1592327203004939</v>
+        <v>0.1255579194071582</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02299256639505011</v>
+        <v>0.02683883894714019</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>49</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1595206901.190776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2188160256.585128</v>
+        <v>2585400340.934498</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09565784274658416</v>
+        <v>0.1098282274702896</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03445842551176802</v>
+        <v>0.03173394747630853</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1094080181.466799</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1422203136.846769</v>
+        <v>1742855235.950704</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0800285051078059</v>
+        <v>0.09417931240324569</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03534886529530694</v>
+        <v>0.03737375904158372</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>711101628.6494329</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1892278460.953418</v>
+        <v>1685551107.399872</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1291104250185243</v>
+        <v>0.1701381952466598</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02105027385599228</v>
+        <v>0.02451490105982711</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>946139241.3315967</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1732321595.450645</v>
+        <v>1362375404.426381</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1450745332520708</v>
+        <v>0.1368015660227648</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04734177102765664</v>
+        <v>0.05718968547895914</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>866160705.7404211</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2732619416.636709</v>
+        <v>2130901482.337059</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1401691744738273</v>
+        <v>0.1096501862028563</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03534450764326304</v>
+        <v>0.03749103792690435</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>47</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1366309710.841611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2683285442.90904</v>
+        <v>3851793855.381782</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08475985020099601</v>
+        <v>0.1044539252588375</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0312255864831887</v>
+        <v>0.02941818010305844</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1341642660.070164</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2226510947.647841</v>
+        <v>1938141340.348399</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1367178364811719</v>
+        <v>0.144945119514</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02391093446326861</v>
+        <v>0.02421737465944926</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>66</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1113255549.973544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2239668919.936627</v>
+        <v>1645477431.729119</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0921177347993478</v>
+        <v>0.09682764299504687</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02663134301517791</v>
+        <v>0.02658490497182114</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1119834614.10462</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1733165429.203775</v>
+        <v>2270374214.978879</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1536066677795309</v>
+        <v>0.1930365268409067</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05203428588444053</v>
+        <v>0.04549207756166762</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>866582678.5810078</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5119412785.180897</v>
+        <v>4410918017.826957</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1783700762531395</v>
+        <v>0.1295901584758316</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05925879554735435</v>
+        <v>0.05420401148642479</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>69</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2559706426.181652</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4592744221.888771</v>
+        <v>4922147446.731486</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1748888658486021</v>
+        <v>0.1713629952474947</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03906272809672942</v>
+        <v>0.04351666797587887</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>52</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2296372143.67738</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3673152503.178741</v>
+        <v>3471466372.63758</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1008012075522794</v>
+        <v>0.06760125095763554</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02408643277221525</v>
+        <v>0.03695725600182067</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1836576304.921677</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1865908788.251696</v>
+        <v>1235454004.278542</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1557624075094307</v>
+        <v>0.1903622363159821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02724425102596139</v>
+        <v>0.04077431499744014</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>932954369.2241851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3073258637.613999</v>
+        <v>3204407250.055911</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1730918008815815</v>
+        <v>0.1088209207997685</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03392945865255376</v>
+        <v>0.04673923810973774</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>66</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1536629373.405462</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1050590411.144482</v>
+        <v>1259858550.603937</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1394037709456613</v>
+        <v>0.1951324896786716</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05037971134836691</v>
+        <v>0.05152669248703266</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>525295281.3208468</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5011328053.738916</v>
+        <v>4740845307.132885</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08616471968195885</v>
+        <v>0.1290313217900945</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03846195973584318</v>
+        <v>0.04256024200251515</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>80</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2505664023.800433</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3008643104.807959</v>
+        <v>3706321209.661054</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1708644094204535</v>
+        <v>0.1645226932769823</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03275144291536696</v>
+        <v>0.03477862076800901</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>55</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1504321584.238689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4421334881.890343</v>
+        <v>4430362632.4541</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1034789272333086</v>
+        <v>0.1337900747565468</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05252841546181243</v>
+        <v>0.04377519594628836</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>63</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2210667538.093835</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3137268960.691114</v>
+        <v>4615970696.039224</v>
       </c>
       <c r="F55" t="n">
-        <v>0.15499322056485</v>
+        <v>0.1478626067388178</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02025863590735253</v>
+        <v>0.02736744193766289</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1568634417.159655</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1703028305.10624</v>
+        <v>1463402666.547734</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1303651345897512</v>
+        <v>0.1310632180240899</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04158830861522692</v>
+        <v>0.05311267927739141</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>851514164.7051163</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3452933565.226429</v>
+        <v>3964626572.934223</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1223611206665639</v>
+        <v>0.1129218723505261</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02719034187763395</v>
+        <v>0.0226428855870791</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>62</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1726466825.016788</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1417267477.059769</v>
+        <v>1736242726.835264</v>
       </c>
       <c r="F58" t="n">
-        <v>0.146165724690995</v>
+        <v>0.1509086916426469</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03642985341775641</v>
+        <v>0.03355847035611031</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>708633777.202529</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4829701746.057468</v>
+        <v>3601119546.394375</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1162433700310007</v>
+        <v>0.1091492483686807</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04438522843540226</v>
+        <v>0.04656646495424713</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>53</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2414850808.932895</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3475314995.795846</v>
+        <v>2949501434.700945</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1927860374973059</v>
+        <v>0.138041638722037</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02332591917124054</v>
+        <v>0.02546777702707908</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1737657618.083163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2563404174.904991</v>
+        <v>2238839593.320185</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1271161366384145</v>
+        <v>0.1146167066200907</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02194897588047713</v>
+        <v>0.02867587564174174</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>67</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1281702109.069136</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1677610895.687749</v>
+        <v>1624857218.184049</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1336166069124285</v>
+        <v>0.1549928193850926</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04929517237411787</v>
+        <v>0.03707183252029009</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>838805457.493206</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5324262716.952637</v>
+        <v>3680161018.390243</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0857544818651912</v>
+        <v>0.08890382559789774</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03400284068517773</v>
+        <v>0.04345135310811821</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>55</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2662131361.761424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4263077507.095702</v>
+        <v>3748296875.113997</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1602058984892437</v>
+        <v>0.1696770274242007</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03054598175716949</v>
+        <v>0.02435625224566781</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>60</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2131538807.882711</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5380173034.670027</v>
+        <v>3857661782.353533</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1258631595946903</v>
+        <v>0.1474405686230063</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0249660228169571</v>
+        <v>0.0285802249612059</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>69</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2690086453.547605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3916341402.290227</v>
+        <v>5109750483.985554</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1348727393192544</v>
+        <v>0.130300586124981</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04518260214073726</v>
+        <v>0.03512720740189629</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>56</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1958170670.203791</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3149029787.331814</v>
+        <v>2909252761.364355</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07260381951872491</v>
+        <v>0.06728138151521534</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04314877846012796</v>
+        <v>0.04046359862731913</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>62</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1574514899.296215</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5908785105.348846</v>
+        <v>4942848892.188994</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1455808390121205</v>
+        <v>0.1221451932787644</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03131364810939184</v>
+        <v>0.03235935648643525</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>61</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2954392664.102638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2286746622.548025</v>
+        <v>2222900014.52047</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1181417674379278</v>
+        <v>0.1396517009430927</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05531267178609562</v>
+        <v>0.05196810819164412</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1143373353.266349</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3683473238.103212</v>
+        <v>3243437672.281866</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07527171789596303</v>
+        <v>0.08918344157731375</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04018880355372442</v>
+        <v>0.03315017807476932</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>55</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1841736640.56358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5397828337.636577</v>
+        <v>4253960275.934401</v>
       </c>
       <c r="F71" t="n">
-        <v>0.115479829512243</v>
+        <v>0.1451448163410051</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02184525525464111</v>
+        <v>0.02288191629626961</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>71</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2698914304.236103</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2084828730.645002</v>
+        <v>2096311469.086009</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07568003787009356</v>
+        <v>0.06765919332093749</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04012874701360634</v>
+        <v>0.04973122210516546</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1042414297.984736</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2251925213.395181</v>
+        <v>2948024507.348236</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07279625693056407</v>
+        <v>0.0807375965603499</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05264180010108996</v>
+        <v>0.04365021515921937</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>73</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1125962671.16866</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2623007074.147587</v>
+        <v>2951823057.208954</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1124831964788653</v>
+        <v>0.1695788943122588</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02507802456711922</v>
+        <v>0.02279812721029894</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>66</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1311503635.007176</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2019071100.950515</v>
+        <v>1991026001.738588</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1548063172071551</v>
+        <v>0.1208983704459379</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02807354003801572</v>
+        <v>0.03354190577277714</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1009535512.803735</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4936295421.214546</v>
+        <v>4604273947.85556</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1161322148515774</v>
+        <v>0.07871687774401509</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02953712815689782</v>
+        <v>0.0322382777484182</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2468147734.586436</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2261232699.53051</v>
+        <v>1875423164.316282</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1412518945351118</v>
+        <v>0.1295483964115274</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02873793751092345</v>
+        <v>0.02105316690354701</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1130616449.871701</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3310535829.064173</v>
+        <v>2983867778.195683</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09570079126974347</v>
+        <v>0.1149977665049149</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05580273451097875</v>
+        <v>0.04649071592621208</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>68</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1655267929.589616</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1165370186.501375</v>
+        <v>1546304291.553657</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1296117647290004</v>
+        <v>0.1084721117825553</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03196746524285353</v>
+        <v>0.03402728980538381</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>582685068.9090166</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5589457754.547166</v>
+        <v>5346907266.140018</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020370389342299</v>
+        <v>0.09244801194718337</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0324946300882102</v>
+        <v>0.03276500675091906</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>40</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2794728955.771137</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5129886125.43517</v>
+        <v>5216571956.636899</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08647446101533683</v>
+        <v>0.1373062794844482</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03088369911893175</v>
+        <v>0.02567387834560344</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>43</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2564943067.863678</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5003808206.648739</v>
+        <v>4250799899.594669</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1799790283474096</v>
+        <v>0.2117269886598721</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0273117767310672</v>
+        <v>0.02589015420889742</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>68</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2501904087.048657</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2095832770.014687</v>
+        <v>1815737091.415258</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1170860614276267</v>
+        <v>0.1569252273334201</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0326387494429786</v>
+        <v>0.03442963682104279</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1047916382.246117</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1746247863.068479</v>
+        <v>2309867785.188059</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09926482024389673</v>
+        <v>0.1008593011738078</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04233676336923141</v>
+        <v>0.04916030554073678</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>873123973.6719099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2946359329.393817</v>
+        <v>2639382254.754665</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1512852856844978</v>
+        <v>0.1372205594587459</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04908567021503081</v>
+        <v>0.05160698686087856</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>73</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1473179718.896313</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2523411653.169837</v>
+        <v>2200644864.221693</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1100690202321033</v>
+        <v>0.1692050657398754</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02603864712325685</v>
+        <v>0.01932110858101435</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>26</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1261705926.988864</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1171572868.638277</v>
+        <v>1205468347.617193</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1492692745082552</v>
+        <v>0.1897985598393501</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02998387745719382</v>
+        <v>0.04246922149392867</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>585786482.5936657</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3147896476.322985</v>
+        <v>2532240270.992817</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1252973533196737</v>
+        <v>0.1127509134453784</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03393133050824363</v>
+        <v>0.03010336080262052</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>77</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1573948283.206466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2944532802.397241</v>
+        <v>3113494290.368943</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1600593240005836</v>
+        <v>0.1369560588369937</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03923811044444441</v>
+        <v>0.04017737598345073</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>67</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1472266443.345735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1813952515.302476</v>
+        <v>1847983211.782052</v>
       </c>
       <c r="F90" t="n">
-        <v>0.115629139037998</v>
+        <v>0.08517464114323335</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03960748886011491</v>
+        <v>0.04753974200599861</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>906976293.796893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1296566730.39086</v>
+        <v>1700953697.347565</v>
       </c>
       <c r="F91" t="n">
-        <v>0.161644967446477</v>
+        <v>0.1535948819510673</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05198017003997866</v>
+        <v>0.04370580906730442</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>648283431.2296133</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2571366516.475317</v>
+        <v>2974221659.673057</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08404862127731287</v>
+        <v>0.08708918998898127</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03793784295131857</v>
+        <v>0.03459060965312953</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>47</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1285683247.540304</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4174526107.691552</v>
+        <v>3913022854.594008</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08892049966123293</v>
+        <v>0.09814083658215295</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04144733222650955</v>
+        <v>0.03336251369201027</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>59</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2087263043.172651</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2211012360.667074</v>
+        <v>2242663806.816053</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1307402745733387</v>
+        <v>0.1567629054068147</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03211432511753422</v>
+        <v>0.04066132054216334</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1105506206.11522</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3009863361.941752</v>
+        <v>2744451129.849323</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1038172145402565</v>
+        <v>0.08589865125176185</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03249719907848488</v>
+        <v>0.03345567928978316</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>46</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1504931679.961281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1768989701.396122</v>
+        <v>2377283613.581114</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1231680062847183</v>
+        <v>0.08878601512974747</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03818414114040729</v>
+        <v>0.03922136422313908</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>884494862.3167776</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4718573104.337085</v>
+        <v>3818307044.607299</v>
       </c>
       <c r="F97" t="n">
-        <v>0.122762488104356</v>
+        <v>0.1336126454859075</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02175254915021857</v>
+        <v>0.0282116607270908</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2359286666.315424</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3468004741.233776</v>
+        <v>3938837732.687326</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1284158989065307</v>
+        <v>0.09220909727272759</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0303613111391206</v>
+        <v>0.02285742877656574</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>51</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1734002387.048612</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2289248085.24205</v>
+        <v>3008985209.091197</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1352284852944069</v>
+        <v>0.1368969293529236</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02338780863202357</v>
+        <v>0.02792803847865621</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>61</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1144623977.03817</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2956512885.916328</v>
+        <v>3915913970.263239</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1685941143437264</v>
+        <v>0.1327378762592062</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0245955491285104</v>
+        <v>0.02563529458401933</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1478256430.308465</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3462226788.404391</v>
+        <v>2188012088.500483</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1344442025924047</v>
+        <v>0.2121866109232944</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04733328978762839</v>
+        <v>0.05552066029967392</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>77</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1731113544.363639</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_193.xlsx
+++ b/output/fit_clients/fit_round_193.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1994610808.21125</v>
+        <v>1898809869.224694</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08859894492599535</v>
+        <v>0.108539963875071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03701929190181528</v>
+        <v>0.04021678970968336</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1623977012.557793</v>
+        <v>2036164386.273192</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1117637601845688</v>
+        <v>0.1266763842708963</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04601850361245455</v>
+        <v>0.03713259958014794</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4306523811.00824</v>
+        <v>4601059200.750896</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1015593683178991</v>
+        <v>0.1665202679504038</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03486661359025466</v>
+        <v>0.02884244740727932</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3720369237.222749</v>
+        <v>3249910414.551246</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08969168693572085</v>
+        <v>0.07472879692605937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04840625958553636</v>
+        <v>0.04768032631679744</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1942037598.517087</v>
+        <v>2832484500.326655</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09507497436626751</v>
+        <v>0.126350825930256</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03452677684991218</v>
+        <v>0.04215439376373166</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2403734313.309823</v>
+        <v>2712198195.88244</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08109567395240695</v>
+        <v>0.06361530330034214</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04932119331063417</v>
+        <v>0.04822864115675331</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3803822141.006137</v>
+        <v>2653635963.268545</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1350029861780132</v>
+        <v>0.1624101866068413</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03205212478391124</v>
+        <v>0.02818973471781226</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1422674959.774263</v>
+        <v>1721587147.040528</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1863218653284299</v>
+        <v>0.1233885766460577</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03018569108303</v>
+        <v>0.02848593731480992</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4792436761.78234</v>
+        <v>4446200450.874593</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1660590381197022</v>
+        <v>0.1868503797053353</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0492289757965042</v>
+        <v>0.04737356275404305</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2769609921.54675</v>
+        <v>3700121572.08136</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1601931457550656</v>
+        <v>0.1197720730762678</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03696089079067731</v>
+        <v>0.04793132117236062</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2581911349.763599</v>
+        <v>3304753017.521006</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1776801783393026</v>
+        <v>0.1246318029460602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04655431107964719</v>
+        <v>0.04313798990459108</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4094306443.073982</v>
+        <v>4852650096.594461</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0957057428577428</v>
+        <v>0.06659801605135446</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02616657519446548</v>
+        <v>0.01894359048711628</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3155938059.875351</v>
+        <v>3283179518.455163</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1613392615295313</v>
+        <v>0.1446900303704208</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03805066620490356</v>
+        <v>0.04169316988313315</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1141567172.676346</v>
+        <v>1401870409.221532</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1027670353644436</v>
+        <v>0.07715656491362065</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03768700580819218</v>
+        <v>0.04462410158684286</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2370850531.840798</v>
+        <v>2097442468.12526</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0888223109028758</v>
+        <v>0.07530971764982194</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04320229794519286</v>
+        <v>0.0509869073577518</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4999644619.850253</v>
+        <v>4770795358.575211</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1108560088796339</v>
+        <v>0.1287482499422618</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03911017217351016</v>
+        <v>0.04295102080211941</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2566005357.582275</v>
+        <v>3703203079.936191</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1446159617792099</v>
+        <v>0.1668726259628629</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02448964257771958</v>
+        <v>0.02636847713201192</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1376651009.386985</v>
+        <v>976778319.5896331</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1295445645312186</v>
+        <v>0.1625841812365833</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01784572812689382</v>
+        <v>0.01873683825039626</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2136476970.995057</v>
+        <v>1816049651.76735</v>
       </c>
       <c r="F20" t="n">
-        <v>0.121069033180233</v>
+        <v>0.1601870260431733</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02582108780073225</v>
+        <v>0.02680487820673999</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2661767788.853281</v>
+        <v>2391055582.17617</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06952033208362222</v>
+        <v>0.07932001844367281</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04598449159996978</v>
+        <v>0.03920708156749375</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3777685842.80219</v>
+        <v>3242854461.274857</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1120676848289533</v>
+        <v>0.1353008775585214</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04067255990046545</v>
+        <v>0.03993202768114239</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>993616277.908978</v>
+        <v>967861259.5647478</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1602285876230897</v>
+        <v>0.1685005278302268</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04660921981166753</v>
+        <v>0.05226437100709307</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3641119338.724865</v>
+        <v>3952064894.240284</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1229559383555147</v>
+        <v>0.1105909605393219</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02946189657634646</v>
+        <v>0.02276461699119935</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1236189464.892212</v>
+        <v>1371633826.041088</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08334772769720204</v>
+        <v>0.09061657065899521</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0309229180571901</v>
+        <v>0.02648877641494362</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1444584392.844564</v>
+        <v>1033891038.932056</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1045882948861398</v>
+        <v>0.0956196778858362</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02919355903743063</v>
+        <v>0.02827889211643239</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3446606085.764162</v>
+        <v>2993279339.335873</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1283032843473316</v>
+        <v>0.153149075141909</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02408636942346236</v>
+        <v>0.01823545350650202</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2480699034.509121</v>
+        <v>3762137102.499177</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1239198493073555</v>
+        <v>0.1293385178597742</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04775759094623499</v>
+        <v>0.04604721095614508</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4401698995.799566</v>
+        <v>4217558491.131377</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1484089403839358</v>
+        <v>0.09573212800655125</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03313474568940234</v>
+        <v>0.03404011899282167</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1886184128.76309</v>
+        <v>2222865131.547661</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1028216086793864</v>
+        <v>0.1310429297645255</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02493051737437249</v>
+        <v>0.0344208507282178</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1056075320.881238</v>
+        <v>1183358958.229655</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0749894169367573</v>
+        <v>0.1115832325402462</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05137148691850657</v>
+        <v>0.05221276356934556</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1236150495.083873</v>
+        <v>1189288936.145394</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1179369415737591</v>
+        <v>0.1193207137572078</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0343586416876661</v>
+        <v>0.03828894718738216</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2145486223.323093</v>
+        <v>2407509891.485581</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1450959660203343</v>
+        <v>0.1376791396060721</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04238911130785391</v>
+        <v>0.03924764857429977</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1194555195.41488</v>
+        <v>1098264552.108538</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1036502463470205</v>
+        <v>0.08100408386163087</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02778357819979571</v>
+        <v>0.02624807975249703</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>931386243.550396</v>
+        <v>1189435512.276447</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07988228884938628</v>
+        <v>0.08522799362827545</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02975184652825891</v>
+        <v>0.04056076756343702</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2579673051.741581</v>
+        <v>2266987124.010227</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1255579194071582</v>
+        <v>0.1803695283665287</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02683883894714019</v>
+        <v>0.02501638957093683</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2585400340.934498</v>
+        <v>2409253375.984113</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1098282274702896</v>
+        <v>0.07665808381454892</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03173394747630853</v>
+        <v>0.0336303869751043</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1742855235.950704</v>
+        <v>1891321663.35222</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09417931240324569</v>
+        <v>0.08900906104190369</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03737375904158372</v>
+        <v>0.03624402838217699</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1685551107.399872</v>
+        <v>1607767968.9914</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1701381952466598</v>
+        <v>0.1350939789449666</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02451490105982711</v>
+        <v>0.02432861045117439</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1362375404.426381</v>
+        <v>1573464985.016858</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1368015660227648</v>
+        <v>0.1469479267521855</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05718968547895914</v>
+        <v>0.04419975502654595</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2130901482.337059</v>
+        <v>2156629232.358489</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1096501862028563</v>
+        <v>0.1652327559805202</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03749103792690435</v>
+        <v>0.03822453628786963</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3851793855.381782</v>
+        <v>3156138118.188204</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1044539252588375</v>
+        <v>0.095352203248593</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02941818010305844</v>
+        <v>0.04091327489287517</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1938141340.348399</v>
+        <v>2605495598.649684</v>
       </c>
       <c r="F43" t="n">
-        <v>0.144945119514</v>
+        <v>0.1534597473832673</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02421737465944926</v>
+        <v>0.01775249426926107</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1645477431.729119</v>
+        <v>1851043106.64414</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09682764299504687</v>
+        <v>0.0910978520886697</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02658490497182114</v>
+        <v>0.02269392774170633</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2270374214.978879</v>
+        <v>2485370701.491519</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1930365268409067</v>
+        <v>0.1365119688478085</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04549207756166762</v>
+        <v>0.05409952104387613</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4410918017.826957</v>
+        <v>4406500372.576514</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1295901584758316</v>
+        <v>0.1508676069748324</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05420401148642479</v>
+        <v>0.03712241359399656</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4922147446.731486</v>
+        <v>4384603774.049608</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1713629952474947</v>
+        <v>0.1259119498569727</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04351666797587887</v>
+        <v>0.05109135678376278</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3471466372.63758</v>
+        <v>4403601893.800282</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06760125095763554</v>
+        <v>0.09766228858092403</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03695725600182067</v>
+        <v>0.02404486338475303</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1235454004.278542</v>
+        <v>1468474246.411552</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1903622363159821</v>
+        <v>0.1836529787876532</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04077431499744014</v>
+        <v>0.02863661947550283</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3204407250.055911</v>
+        <v>3547119601.258395</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1088209207997685</v>
+        <v>0.1072042415797198</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04673923810973774</v>
+        <v>0.03743380099690523</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1259858550.603937</v>
+        <v>1009913530.044963</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1951324896786716</v>
+        <v>0.1781901386295805</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05152669248703266</v>
+        <v>0.04404666847220882</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4740845307.132885</v>
+        <v>4545130917.893592</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290313217900945</v>
+        <v>0.1293258918099709</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04256024200251515</v>
+        <v>0.05769642035210883</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3706321209.661054</v>
+        <v>2340024250.574557</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1645226932769823</v>
+        <v>0.124167309249567</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03477862076800901</v>
+        <v>0.02345843806164428</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4430362632.4541</v>
+        <v>4192101348.685243</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1337900747565468</v>
+        <v>0.1458269488074443</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04377519594628836</v>
+        <v>0.04391163913379384</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4615970696.039224</v>
+        <v>4328230006.260425</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1478626067388178</v>
+        <v>0.1665211307640765</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02736744193766289</v>
+        <v>0.02693608526067899</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1463402666.547734</v>
+        <v>1514334215.461756</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1310632180240899</v>
+        <v>0.1044980982895628</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05311267927739141</v>
+        <v>0.04469945530739777</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3964626572.934223</v>
+        <v>3512939075.324589</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1129218723505261</v>
+        <v>0.1617977029297016</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0226428855870791</v>
+        <v>0.01948532662070918</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1736242726.835264</v>
+        <v>1830996096.065227</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1509086916426469</v>
+        <v>0.1950567077504646</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03355847035611031</v>
+        <v>0.03713941198459709</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3601119546.394375</v>
+        <v>4634836588.679951</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1091492483686807</v>
+        <v>0.08821778672243624</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04656646495424713</v>
+        <v>0.04523342282613625</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2949501434.700945</v>
+        <v>3633893222.964162</v>
       </c>
       <c r="F60" t="n">
-        <v>0.138041638722037</v>
+        <v>0.1590678161964958</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02546777702707908</v>
+        <v>0.03328225020763532</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2238839593.320185</v>
+        <v>2191124228.486961</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1146167066200907</v>
+        <v>0.1587618489758305</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02867587564174174</v>
+        <v>0.02588439914599227</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1624857218.184049</v>
+        <v>1326166620.508919</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1549928193850926</v>
+        <v>0.1376428891540586</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03707183252029009</v>
+        <v>0.03177475488466147</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3680161018.390243</v>
+        <v>4337084360.29592</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08890382559789774</v>
+        <v>0.08561029383827462</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04345135310811821</v>
+        <v>0.02911705126002267</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3748296875.113997</v>
+        <v>3802083079.894938</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1696770274242007</v>
+        <v>0.1729472411078809</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02435625224566781</v>
+        <v>0.02150992975894241</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3857661782.353533</v>
+        <v>5665783660.581687</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1474405686230063</v>
+        <v>0.1736974818994007</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0285802249612059</v>
+        <v>0.02667852700555806</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5109750483.985554</v>
+        <v>5007711085.060093</v>
       </c>
       <c r="F66" t="n">
-        <v>0.130300586124981</v>
+        <v>0.1189138542787713</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03512720740189629</v>
+        <v>0.04242779758511903</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2909252761.364355</v>
+        <v>3149497962.167243</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06728138151521534</v>
+        <v>0.0941515888462172</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04046359862731913</v>
+        <v>0.03996393281023873</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4942848892.188994</v>
+        <v>5156581712.080686</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1221451932787644</v>
+        <v>0.1224156194700725</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03235935648643525</v>
+        <v>0.04018342612703685</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2222900014.52047</v>
+        <v>1995492728.783825</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1396517009430927</v>
+        <v>0.1392081173231612</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05196810819164412</v>
+        <v>0.04136912633212083</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3243437672.281866</v>
+        <v>2271824281.006304</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08918344157731375</v>
+        <v>0.06561279434685591</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03315017807476932</v>
+        <v>0.049605512289642</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4253960275.934401</v>
+        <v>3510601630.983941</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1451448163410051</v>
+        <v>0.1834485188726948</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02288191629626961</v>
+        <v>0.02224991822898349</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2096311469.086009</v>
+        <v>1828642221.924199</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06765919332093749</v>
+        <v>0.07663597990488223</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04973122210516546</v>
+        <v>0.03703667488598229</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2948024507.348236</v>
+        <v>2511169991.033098</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0807375965603499</v>
+        <v>0.101622197813352</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04365021515921937</v>
+        <v>0.05128745389439478</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2951823057.208954</v>
+        <v>3456878602.660363</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1695788943122588</v>
+        <v>0.1397721493498354</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02279812721029894</v>
+        <v>0.02610488118778855</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1991026001.738588</v>
+        <v>1810510007.181232</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1208983704459379</v>
+        <v>0.107668294054584</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03354190577277714</v>
+        <v>0.02821877932040332</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4604273947.85556</v>
+        <v>4681953821.56595</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07871687774401509</v>
+        <v>0.08142850914083867</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0322382777484182</v>
+        <v>0.02534087614544862</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1875423164.316282</v>
+        <v>1715490164.384764</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1295483964115274</v>
+        <v>0.1504136445499926</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02105316690354701</v>
+        <v>0.02066792293500937</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2983867778.195683</v>
+        <v>4493508277.924877</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1149977665049149</v>
+        <v>0.1338600805989564</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04649071592621208</v>
+        <v>0.04778929789105929</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1546304291.553657</v>
+        <v>1696745575.969061</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1084721117825553</v>
+        <v>0.155793285773486</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03402728980538381</v>
+        <v>0.03047998375908501</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5346907266.140018</v>
+        <v>4224937680.867988</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09244801194718337</v>
+        <v>0.08062088490939218</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03276500675091906</v>
+        <v>0.02908452327717839</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5216571956.636899</v>
+        <v>4195432579.34806</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1373062794844482</v>
+        <v>0.1330193287811507</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02567387834560344</v>
+        <v>0.02247199323844161</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4250799899.594669</v>
+        <v>4664104303.530505</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2117269886598721</v>
+        <v>0.1496450642089549</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02589015420889742</v>
+        <v>0.02036342521502371</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1815737091.415258</v>
+        <v>1657798014.193777</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1569252273334201</v>
+        <v>0.1354462807866647</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03442963682104279</v>
+        <v>0.03082562438251913</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,16 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2309867785.188059</v>
+        <v>1900688747.470985</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1008593011738078</v>
+        <v>0.09700470899144831</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04916030554073678</v>
+        <v>0.03222705560582668</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2639382254.754665</v>
+        <v>2247646575.770872</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1372205594587459</v>
+        <v>0.1606419723365534</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05160698686087856</v>
+        <v>0.03752242757200143</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2200644864.221693</v>
+        <v>2187451009.738437</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1692050657398754</v>
+        <v>0.1095902217749738</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01932110858101435</v>
+        <v>0.01925522547080281</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1205468347.617193</v>
+        <v>1358682762.146478</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1897985598393501</v>
+        <v>0.1571492129584201</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04246922149392867</v>
+        <v>0.03075645666169082</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2532240270.992817</v>
+        <v>3250506178.966994</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1127509134453784</v>
+        <v>0.1603134470524186</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03010336080262052</v>
+        <v>0.0356165965181288</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3113494290.368943</v>
+        <v>2740773684.984823</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1369560588369937</v>
+        <v>0.1580608978775567</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04017737598345073</v>
+        <v>0.03837373509195332</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1847983211.782052</v>
+        <v>1803649062.602579</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08517464114323335</v>
+        <v>0.1019776790917649</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04753974200599861</v>
+        <v>0.03624136534490494</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1700953697.347565</v>
+        <v>2028017570.455377</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1535948819510673</v>
+        <v>0.1650517855856289</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04370580906730442</v>
+        <v>0.04879314955315844</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2974221659.673057</v>
+        <v>2458770900.86876</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08708918998898127</v>
+        <v>0.09753986661863298</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03459060965312953</v>
+        <v>0.03032573979270383</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3913022854.594008</v>
+        <v>4217035313.219489</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09814083658215295</v>
+        <v>0.1076134968248031</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03336251369201027</v>
+        <v>0.05456957746594852</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2242663806.816053</v>
+        <v>1752104762.006746</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1567629054068147</v>
+        <v>0.1090578633924414</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04066132054216334</v>
+        <v>0.03494760373373695</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2744451129.849323</v>
+        <v>2635731864.197353</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08589865125176185</v>
+        <v>0.1188664885986239</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03345567928978316</v>
+        <v>0.04990877536913486</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2377283613.581114</v>
+        <v>2259087542.856666</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08878601512974747</v>
+        <v>0.1149188386493865</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03922136422313908</v>
+        <v>0.0429572055756736</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3818307044.607299</v>
+        <v>4869647096.590769</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1336126454859075</v>
+        <v>0.1119117094267762</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0282116607270908</v>
+        <v>0.0221200968191975</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3938837732.687326</v>
+        <v>3798820518.661673</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09220909727272759</v>
+        <v>0.1209685195554202</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02285742877656574</v>
+        <v>0.03281290265972919</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3008985209.091197</v>
+        <v>2448736530.40469</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1368969293529236</v>
+        <v>0.1019129013553224</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02792803847865621</v>
+        <v>0.03485056738200744</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3915913970.263239</v>
+        <v>4560226538.110333</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1327378762592062</v>
+        <v>0.1450045330349923</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02563529458401933</v>
+        <v>0.02222738559648278</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2188012088.500483</v>
+        <v>2712158633.525588</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2121866109232944</v>
+        <v>0.1738192746706101</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05552066029967392</v>
+        <v>0.04135478733185607</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_193.xlsx
+++ b/output/fit_clients/fit_round_193.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1898809869.224694</v>
+        <v>1576215193.333947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.108539963875071</v>
+        <v>0.08022884646217487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04021678970968336</v>
+        <v>0.03325804410640571</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2036164386.273192</v>
+        <v>1857024258.545519</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1266763842708963</v>
+        <v>0.1169521031144672</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03713259958014794</v>
+        <v>0.04360137432260403</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4601059200.750896</v>
+        <v>3934072316.408673</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1665202679504038</v>
+        <v>0.139618681856132</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02884244740727932</v>
+        <v>0.03694240895022156</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>106</v>
+      </c>
+      <c r="J4" t="n">
+        <v>193</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3249910414.551246</v>
+        <v>2751122026.240528</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07472879692605937</v>
+        <v>0.1023197581343626</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04768032631679744</v>
+        <v>0.05052448431472174</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>80</v>
+      </c>
+      <c r="J5" t="n">
+        <v>192</v>
+      </c>
+      <c r="K5" t="n">
+        <v>71.5074983386146</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2832484500.326655</v>
+        <v>2802941347.778492</v>
       </c>
       <c r="F6" t="n">
-        <v>0.126350825930256</v>
+        <v>0.09097673500699613</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04215439376373166</v>
+        <v>0.04646136209672861</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2712198195.88244</v>
+        <v>2678996523.26191</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06361530330034214</v>
+        <v>0.0859672205158087</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04822864115675331</v>
+        <v>0.03076806811560932</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2653635963.268545</v>
+        <v>3105528685.131864</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1624101866068413</v>
+        <v>0.2212882362303499</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02818973471781226</v>
+        <v>0.02181041239098211</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>54</v>
+      </c>
+      <c r="J8" t="n">
+        <v>190</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1721587147.040528</v>
+        <v>2212530741.473806</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1233885766460577</v>
+        <v>0.1431931970116029</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02848593731480992</v>
+        <v>0.03021004924244944</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4446200450.874593</v>
+        <v>5182045849.48879</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1868503797053353</v>
+        <v>0.2114787754678731</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04737356275404305</v>
+        <v>0.04909054391940153</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>176</v>
+      </c>
+      <c r="J10" t="n">
+        <v>193</v>
+      </c>
+      <c r="K10" t="n">
+        <v>132.8272722842771</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3700121572.08136</v>
+        <v>3634695496.662107</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1197720730762678</v>
+        <v>0.1320443664650238</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04793132117236062</v>
+        <v>0.04941070417831099</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>79</v>
+      </c>
+      <c r="J11" t="n">
+        <v>192</v>
+      </c>
+      <c r="K11" t="n">
+        <v>117.3030513241581</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3304753017.521006</v>
+        <v>2771767826.119365</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1246318029460602</v>
+        <v>0.1461083395273768</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04313798990459108</v>
+        <v>0.05345641538107253</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4852650096.594461</v>
+        <v>4815364202.804088</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06659801605135446</v>
+        <v>0.1008539240346961</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01894359048711628</v>
+        <v>0.02288136622822804</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>97</v>
+      </c>
+      <c r="J13" t="n">
+        <v>192</v>
+      </c>
+      <c r="K13" t="n">
+        <v>121.7618501587857</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3283179518.455163</v>
+        <v>3283598353.459901</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1446900303704208</v>
+        <v>0.1885169650064463</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04169316988313315</v>
+        <v>0.02668651042768242</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>36</v>
+      </c>
+      <c r="J14" t="n">
+        <v>189</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1401870409.221532</v>
+        <v>1219845468.47648</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07715656491362065</v>
+        <v>0.0973199764971467</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04462410158684286</v>
+        <v>0.03335838563475872</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2097442468.12526</v>
+        <v>2007343163.935795</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07530971764982194</v>
+        <v>0.1062109245595561</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0509869073577518</v>
+        <v>0.03331999092641277</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4770795358.575211</v>
+        <v>4777123475.722467</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1287482499422618</v>
+        <v>0.1086571222887907</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04295102080211941</v>
+        <v>0.0405222684741505</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>92</v>
+      </c>
+      <c r="J17" t="n">
+        <v>193</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3703203079.936191</v>
+        <v>2431260921.516703</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1668726259628629</v>
+        <v>0.1598566632382274</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02636847713201192</v>
+        <v>0.02567636821278517</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>48</v>
+      </c>
+      <c r="J18" t="n">
+        <v>187</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>976778319.5896331</v>
+        <v>1095610215.964687</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625841812365833</v>
+        <v>0.1338070512730465</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01873683825039626</v>
+        <v>0.02698958019480014</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1816049651.76735</v>
+        <v>2260924441.70273</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1601870260431733</v>
+        <v>0.1396824172069044</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02680487820673999</v>
+        <v>0.02810988969975738</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2391055582.17617</v>
+        <v>2284392586.79608</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07932001844367281</v>
+        <v>0.0773246248199215</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03920708156749375</v>
+        <v>0.04427589995839272</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3242854461.274857</v>
+        <v>3060395980.177172</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1353008775585214</v>
+        <v>0.1154742427132687</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03993202768114239</v>
+        <v>0.04808768731056392</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>49</v>
+      </c>
+      <c r="J22" t="n">
+        <v>192</v>
+      </c>
+      <c r="K22" t="n">
+        <v>69.99506154175772</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>967861259.5647478</v>
+        <v>1378799687.202585</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1685005278302268</v>
+        <v>0.146489098463953</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05226437100709307</v>
+        <v>0.040205122368762</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3952064894.240284</v>
+        <v>3284094672.341599</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1105909605393219</v>
+        <v>0.1259665159952579</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02276461699119935</v>
+        <v>0.02696050634165397</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>60</v>
+      </c>
+      <c r="J24" t="n">
+        <v>189</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1371633826.041088</v>
+        <v>1420241865.783711</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09061657065899521</v>
+        <v>0.1229747781772945</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02648877641494362</v>
+        <v>0.02367967483205797</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1033891038.932056</v>
+        <v>1248563699.585252</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0956196778858362</v>
+        <v>0.08105122107005318</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02827889211643239</v>
+        <v>0.03873550113616732</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2993279339.335873</v>
+        <v>3656312911.555417</v>
       </c>
       <c r="F27" t="n">
-        <v>0.153149075141909</v>
+        <v>0.1553939345952721</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01823545350650202</v>
+        <v>0.02029220572887392</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>77</v>
+      </c>
+      <c r="J27" t="n">
+        <v>192</v>
+      </c>
+      <c r="K27" t="n">
+        <v>93.98516777697576</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3762137102.499177</v>
+        <v>3443270960.872255</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1293385178597742</v>
+        <v>0.1466731290324385</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04604721095614508</v>
+        <v>0.0439126589506364</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>39</v>
+      </c>
+      <c r="J28" t="n">
+        <v>193</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4217558491.131377</v>
+        <v>4825985211.345704</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09573212800655125</v>
+        <v>0.1349575423922922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03404011899282167</v>
+        <v>0.03585932115880135</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>182</v>
+      </c>
+      <c r="J29" t="n">
+        <v>193</v>
+      </c>
+      <c r="K29" t="n">
+        <v>139.4129007659547</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2222865131.547661</v>
+        <v>2369231661.808998</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1310429297645255</v>
+        <v>0.1078892345933436</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0344208507282178</v>
+        <v>0.02439214276773704</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1183358958.229655</v>
+        <v>1388606250.068871</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1115832325402462</v>
+        <v>0.07873951219290395</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05221276356934556</v>
+        <v>0.04706386152244079</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1189288936.145394</v>
+        <v>1423752306.557459</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1193207137572078</v>
+        <v>0.07336408454420132</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03828894718738216</v>
+        <v>0.03660583685747695</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2407509891.485581</v>
+        <v>2255969009.015338</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1376791396060721</v>
+        <v>0.2027523902236774</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03924764857429977</v>
+        <v>0.04344632734778675</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1098264552.108538</v>
+        <v>1263627704.634593</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08100408386163087</v>
+        <v>0.1043075153525554</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02624807975249703</v>
+        <v>0.02660245106920047</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1189435512.276447</v>
+        <v>941116349.2759073</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08522799362827545</v>
+        <v>0.1170114794744903</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04056076756343702</v>
+        <v>0.03646366748074727</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2266987124.010227</v>
+        <v>2797988166.388683</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1803695283665287</v>
+        <v>0.1697150439598154</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02501638957093683</v>
+        <v>0.01950861075469527</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2409253375.984113</v>
+        <v>2840793467.798401</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07665808381454892</v>
+        <v>0.07768324464931334</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0336303869751043</v>
+        <v>0.03922504643714599</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1891321663.35222</v>
+        <v>1595491709.338857</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08900906104190369</v>
+        <v>0.1225078343847968</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03624402838217699</v>
+        <v>0.03667092375946161</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1607767968.9914</v>
+        <v>1545786156.364753</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1350939789449666</v>
+        <v>0.1451977483398474</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02432861045117439</v>
+        <v>0.02466717390418277</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1573464985.016858</v>
+        <v>1820922741.356322</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1469479267521855</v>
+        <v>0.1437586400895231</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04419975502654595</v>
+        <v>0.04231517535221142</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2156629232.358489</v>
+        <v>2141957299.084594</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1652327559805202</v>
+        <v>0.1648795110734128</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03822453628786963</v>
+        <v>0.02964760843210259</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3156138118.188204</v>
+        <v>3388611331.06981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.095352203248593</v>
+        <v>0.110741046492332</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04091327489287517</v>
+        <v>0.04220036138803909</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>74</v>
+      </c>
+      <c r="J42" t="n">
+        <v>193</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2605495598.649684</v>
+        <v>2238600760.849947</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1534597473832673</v>
+        <v>0.1936552761658102</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01775249426926107</v>
+        <v>0.01933111802227854</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1851043106.64414</v>
+        <v>1642193571.896471</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0910978520886697</v>
+        <v>0.08761318860042043</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02269392774170633</v>
+        <v>0.02617269804115456</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2485370701.491519</v>
+        <v>1928779868.573877</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1365119688478085</v>
+        <v>0.1512424227294338</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05409952104387613</v>
+        <v>0.04433511903091292</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4406500372.576514</v>
+        <v>3853400723.348751</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1508676069748324</v>
+        <v>0.1214752535588192</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03712241359399656</v>
+        <v>0.0396158104264807</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>110</v>
+      </c>
+      <c r="J46" t="n">
+        <v>193</v>
+      </c>
+      <c r="K46" t="n">
+        <v>124.0708974773337</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4384603774.049608</v>
+        <v>4721669714.379291</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1259119498569727</v>
+        <v>0.1267869325474885</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05109135678376278</v>
+        <v>0.03909894967194131</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>86</v>
+      </c>
+      <c r="J47" t="n">
+        <v>192</v>
+      </c>
+      <c r="K47" t="n">
+        <v>101.0309091192086</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2129,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4403601893.800282</v>
+        <v>3397077342.862145</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09766228858092403</v>
+        <v>0.09729177847278625</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02404486338475303</v>
+        <v>0.02621428243706776</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>92</v>
+      </c>
+      <c r="J48" t="n">
+        <v>192</v>
+      </c>
+      <c r="K48" t="n">
+        <v>98.40320177861749</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1468474246.411552</v>
+        <v>1623292896.685485</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1836529787876532</v>
+        <v>0.1541457987009237</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02863661947550283</v>
+        <v>0.03909881466806762</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2201,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3547119601.258395</v>
+        <v>3433401567.113232</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1072042415797198</v>
+        <v>0.1200203698889675</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03743380099690523</v>
+        <v>0.03289162996631662</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>61</v>
+      </c>
+      <c r="J50" t="n">
+        <v>193</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1009913530.044963</v>
+        <v>1247682471.421235</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1781901386295805</v>
+        <v>0.1332336996493586</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04404666847220882</v>
+        <v>0.04120100205841812</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4545130917.893592</v>
+        <v>4611456561.906413</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1293258918099709</v>
+        <v>0.09455704669186125</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05769642035210883</v>
+        <v>0.05977860732311942</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>134</v>
+      </c>
+      <c r="J52" t="n">
+        <v>193</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2340024250.574557</v>
+        <v>2589428306.156092</v>
       </c>
       <c r="F53" t="n">
-        <v>0.124167309249567</v>
+        <v>0.1961439554981145</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02345843806164428</v>
+        <v>0.03075744988149643</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4192101348.685243</v>
+        <v>4766390731.074384</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1458269488074443</v>
+        <v>0.1374503209910445</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04391163913379384</v>
+        <v>0.04612993282427757</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>97</v>
+      </c>
+      <c r="J54" t="n">
+        <v>193</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4328230006.260425</v>
+        <v>4901220172.711144</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1665211307640765</v>
+        <v>0.1751932442926176</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02693608526067899</v>
+        <v>0.02224713432049346</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>86</v>
+      </c>
+      <c r="J55" t="n">
+        <v>193</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1514334215.461756</v>
+        <v>1751287603.372862</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1044980982895628</v>
+        <v>0.13860156681962</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04469945530739777</v>
+        <v>0.05769761787123157</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3512939075.324589</v>
+        <v>3307479594.784933</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1617977029297016</v>
+        <v>0.1557857251397915</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01948532662070918</v>
+        <v>0.02324368755646955</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>77</v>
+      </c>
+      <c r="J57" t="n">
+        <v>192</v>
+      </c>
+      <c r="K57" t="n">
+        <v>89.49787167756145</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1830996096.065227</v>
+        <v>1817853250.10329</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1950567077504646</v>
+        <v>0.159892247606904</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03713941198459709</v>
+        <v>0.03637451358922664</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4634836588.679951</v>
+        <v>3363238458.4884</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08821778672243624</v>
+        <v>0.1179563071957571</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04523342282613625</v>
+        <v>0.04197630957428355</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>93</v>
+      </c>
+      <c r="J59" t="n">
+        <v>192</v>
+      </c>
+      <c r="K59" t="n">
+        <v>86.46640695144524</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3633893222.964162</v>
+        <v>3232081159.637758</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1590678161964958</v>
+        <v>0.1961439028173111</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03328225020763532</v>
+        <v>0.02112957434007046</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2191124228.486961</v>
+        <v>2575181876.736371</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1587618489758305</v>
+        <v>0.1640608178600884</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02588439914599227</v>
+        <v>0.03025016055376122</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1326166620.508919</v>
+        <v>2119117764.702651</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1376428891540586</v>
+        <v>0.1466980078385736</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03177475488466147</v>
+        <v>0.0346925710107174</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4337084360.29592</v>
+        <v>5375670670.687207</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08561029383827462</v>
+        <v>0.08431875666435754</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02911705126002267</v>
+        <v>0.03434937290002844</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>95</v>
+      </c>
+      <c r="J63" t="n">
+        <v>192</v>
+      </c>
+      <c r="K63" t="n">
+        <v>115.343562776523</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2697,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3802083079.894938</v>
+        <v>4078236717.757195</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1729472411078809</v>
+        <v>0.1858782823844765</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02150992975894241</v>
+        <v>0.02213219949257545</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>95</v>
+      </c>
+      <c r="J64" t="n">
+        <v>192</v>
+      </c>
+      <c r="K64" t="n">
+        <v>116.3249687510227</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2734,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5665783660.581687</v>
+        <v>5425262922.902268</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1736974818994007</v>
+        <v>0.1485652502256421</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02667852700555806</v>
+        <v>0.03058733277585136</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>157</v>
+      </c>
+      <c r="J65" t="n">
+        <v>193</v>
+      </c>
+      <c r="K65" t="n">
+        <v>125.314568608815</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2765,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5007711085.060093</v>
+        <v>5330730883.311663</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1189138542787713</v>
+        <v>0.1530950122237156</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04242779758511903</v>
+        <v>0.04789754530301434</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>95</v>
+      </c>
+      <c r="J66" t="n">
+        <v>192</v>
+      </c>
+      <c r="K66" t="n">
+        <v>112.339919170106</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2808,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3149497962.167243</v>
+        <v>3003791964.663093</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0941515888462172</v>
+        <v>0.07943269394760409</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03996393281023873</v>
+        <v>0.03512668185027296</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5156581712.080686</v>
+        <v>4458868954.435705</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1224156194700725</v>
+        <v>0.1357123621460318</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04018342612703685</v>
+        <v>0.03215327404516242</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>97</v>
+      </c>
+      <c r="J68" t="n">
+        <v>193</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1995492728.783825</v>
+        <v>1695605539.463898</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1392081173231612</v>
+        <v>0.1179698295903093</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04136912633212083</v>
+        <v>0.06023734634288481</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2271824281.006304</v>
+        <v>3734890292.737593</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06561279434685591</v>
+        <v>0.08041960087966846</v>
       </c>
       <c r="G70" t="n">
-        <v>0.049605512289642</v>
+        <v>0.03870619240206107</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>27</v>
+      </c>
+      <c r="J70" t="n">
+        <v>193</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3510601630.983941</v>
+        <v>5479044803.77165</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1834485188726948</v>
+        <v>0.157710444589978</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02224991822898349</v>
+        <v>0.03053958848297957</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>149</v>
+      </c>
+      <c r="J71" t="n">
+        <v>193</v>
+      </c>
+      <c r="K71" t="n">
+        <v>123.661478411137</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1828642221.924199</v>
+        <v>1406084813.529706</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07663597990488223</v>
+        <v>0.0895723667720266</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03703667488598229</v>
+        <v>0.04880227280622995</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2511169991.033098</v>
+        <v>2370717556.394064</v>
       </c>
       <c r="F73" t="n">
-        <v>0.101622197813352</v>
+        <v>0.07028088974299948</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05128745389439478</v>
+        <v>0.04303092477341913</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3456878602.660363</v>
+        <v>3384228778.299349</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1397721493498354</v>
+        <v>0.1263967115861201</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02610488118778855</v>
+        <v>0.02494014078758291</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>55</v>
+      </c>
+      <c r="J74" t="n">
+        <v>189</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1810510007.181232</v>
+        <v>2064396146.213625</v>
       </c>
       <c r="F75" t="n">
-        <v>0.107668294054584</v>
+        <v>0.1486586989330276</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02821877932040332</v>
+        <v>0.03738596134047572</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4681953821.56595</v>
+        <v>4559106407.756968</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08142850914083867</v>
+        <v>0.07610039306954866</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02534087614544862</v>
+        <v>0.02160198533675324</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>88</v>
+      </c>
+      <c r="J76" t="n">
+        <v>192</v>
+      </c>
+      <c r="K76" t="n">
+        <v>103.9537170060264</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1715490164.384764</v>
+        <v>1526186177.491378</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1504136445499926</v>
+        <v>0.1245366172800034</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02066792293500937</v>
+        <v>0.02271738473213145</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4493508277.924877</v>
+        <v>2901578422.964662</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1338600805989564</v>
+        <v>0.0857519291648048</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04778929789105929</v>
+        <v>0.04161370373023349</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>98</v>
+      </c>
+      <c r="J78" t="n">
+        <v>191</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1696745575.969061</v>
+        <v>1168812053.802559</v>
       </c>
       <c r="F79" t="n">
-        <v>0.155793285773486</v>
+        <v>0.1548864387114647</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03047998375908501</v>
+        <v>0.03869492551148551</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3261,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4224937680.867988</v>
+        <v>5284377052.145105</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08062088490939218</v>
+        <v>0.0743446669838938</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02908452327717839</v>
+        <v>0.0346829151830132</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>94</v>
+      </c>
+      <c r="J80" t="n">
+        <v>193</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4195432579.34806</v>
+        <v>4410324113.213181</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1330193287811507</v>
+        <v>0.1164498735231113</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02247199323844161</v>
+        <v>0.02394512161438539</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>88</v>
+      </c>
+      <c r="J81" t="n">
+        <v>193</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3331,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4664104303.530505</v>
+        <v>4489233733.38639</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1496450642089549</v>
+        <v>0.152418921091489</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02036342521502371</v>
+        <v>0.01979100897536475</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>142</v>
+      </c>
+      <c r="J82" t="n">
+        <v>193</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1657798014.193777</v>
+        <v>1737431546.570929</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1354462807866647</v>
+        <v>0.1495649171650927</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03082562438251913</v>
+        <v>0.04343792727278908</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1900688747.470985</v>
+        <v>1628201636.958825</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09700470899144831</v>
+        <v>0.1153560980996282</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03222705560582668</v>
+        <v>0.04925208954367846</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2247646575.770872</v>
+        <v>3242202860.299917</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1606419723365534</v>
+        <v>0.1390292251180428</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03752242757200143</v>
+        <v>0.04414160325644999</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2187451009.738437</v>
+        <v>1990207694.134737</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1095902217749738</v>
+        <v>0.1591136639891046</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01925522547080281</v>
+        <v>0.01815881197518585</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1358682762.146478</v>
+        <v>1045901633.107713</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1571492129584201</v>
+        <v>0.122686061240417</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03075645666169082</v>
+        <v>0.03191246664826364</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3250506178.966994</v>
+        <v>3317531882.568362</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1603134470524186</v>
+        <v>0.17667158660051</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0356165965181288</v>
+        <v>0.03058021578955389</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="n">
+        <v>97.51202680108561</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2740773684.984823</v>
+        <v>3221369314.640068</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1580608978775567</v>
+        <v>0.1558804776347168</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03837373509195332</v>
+        <v>0.03925402409978795</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1803649062.602579</v>
+        <v>1761840994.571305</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1019776790917649</v>
+        <v>0.08449306695415026</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03624136534490494</v>
+        <v>0.03699016826723848</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2028017570.455377</v>
+        <v>1855384192.935281</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1650517855856289</v>
+        <v>0.1648052126115496</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04879314955315844</v>
+        <v>0.05773480947734854</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2458770900.86876</v>
+        <v>1871021575.524483</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09753986661863298</v>
+        <v>0.07256834291418185</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03032573979270383</v>
+        <v>0.03480802985410019</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4217035313.219489</v>
+        <v>3546282197.074408</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1076134968248031</v>
+        <v>0.1123337188217488</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05456957746594852</v>
+        <v>0.05382917548026463</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>87</v>
+      </c>
+      <c r="J93" t="n">
+        <v>192</v>
+      </c>
+      <c r="K93" t="n">
+        <v>98.15716107037306</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1752104762.006746</v>
+        <v>1988508911.206626</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1090578633924414</v>
+        <v>0.154606095715484</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03494760373373695</v>
+        <v>0.03558085351728681</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2635731864.197353</v>
+        <v>2802289423.788471</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1188664885986239</v>
+        <v>0.09041477564174405</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04990877536913486</v>
+        <v>0.04550568327026108</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2259087542.856666</v>
+        <v>2195455945.595556</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1149188386493865</v>
+        <v>0.1114939135742717</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0429572055756736</v>
+        <v>0.04620922378762774</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4869647096.590769</v>
+        <v>3471135192.70734</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1119117094267762</v>
+        <v>0.1746975838847752</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0221200968191975</v>
+        <v>0.0287624790594313</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>93</v>
+      </c>
+      <c r="J97" t="n">
+        <v>193</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3798820518.661673</v>
+        <v>3712781334.983303</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1209685195554202</v>
+        <v>0.1042038408498741</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03281290265972919</v>
+        <v>0.03174879142519879</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>47</v>
+      </c>
+      <c r="J98" t="n">
+        <v>193</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2448736530.40469</v>
+        <v>3125854085.772168</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1019129013553224</v>
+        <v>0.09355970086704415</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03485056738200744</v>
+        <v>0.02412278147000765</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4560226538.110333</v>
+        <v>3047089510.748193</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1450045330349923</v>
+        <v>0.114959842037459</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02222738559648278</v>
+        <v>0.02789028157213083</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>80</v>
+      </c>
+      <c r="J100" t="n">
+        <v>191</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2712158633.525588</v>
+        <v>3067580693.904837</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1738192746706101</v>
+        <v>0.2223637099118936</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04135478733185607</v>
+        <v>0.0490068299330557</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
